--- a/data/trans_orig/KIDMED_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D88587-1E98-4D17-A038-4E507F8D6530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE5EBE7-4AD5-483D-A816-B705A2877749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92A4227E-50AA-429F-879D-A6C5A4E9BB18}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEB5EEB-7028-4696-9D7E-394377F0FC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Alta</t>
@@ -74,28 +74,28 @@
     <t>40,05%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>36,32%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>Media</t>
@@ -104,28 +104,28 @@
     <t>59,95%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
   </si>
   <si>
     <t>63,68%</t>
   </si>
   <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>Baja</t>
@@ -149,97 +149,97 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
   </si>
   <si>
     <t>71,64%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>30,38%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,81%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>3,83%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>70,63%</t>
   </si>
   <si>
-    <t>64,62%</t>
+    <t>64,53%</t>
   </si>
   <si>
     <t>75,81%</t>
@@ -248,310 +248,295 @@
     <t>70,41%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>28,09%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>28,66%</t>
   </si>
   <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>51,21%</t>
   </si>
   <si>
-    <t>43,88%</t>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
+    <t>66,24%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -966,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC0BAE6-6E5A-4C6D-A556-8673752E2C0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386F4AFA-9290-43B2-9F60-9E07DD306975}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2001,7 +1986,7 @@
         <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,13 +2001,13 @@
         <v>6300</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -2031,13 +2016,13 @@
         <v>9295</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -2046,13 +2031,13 @@
         <v>15595</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2105,13 @@
         <v>452848</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>580</v>
@@ -2135,13 +2120,13 @@
         <v>402002</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>1187</v>
@@ -2150,13 +2135,13 @@
         <v>854850</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2156,13 @@
         <v>233236</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>311</v>
@@ -2186,13 +2171,13 @@
         <v>221745</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>614</v>
@@ -2201,13 +2186,13 @@
         <v>454981</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2207,13 @@
         <v>23250</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -2237,13 +2222,13 @@
         <v>16862</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -2252,13 +2237,13 @@
         <v>40112</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2299,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDMED_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/KIDMED_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCE5EBE7-4AD5-483D-A816-B705A2877749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DAF6F78-F725-43AF-98CE-6ADB61E9FD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FBEB5EEB-7028-4696-9D7E-394377F0FC6E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AC096499-AF91-49B2-8769-1FB4B4D035E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="149">
   <si>
     <t>Recodificación Kidmed en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,478 +65,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>Media</t>
   </si>
   <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,8 +894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386F4AFA-9290-43B2-9F60-9E07DD306975}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5A8203-2461-489F-B665-EFF46B84F358}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1069,10 +1012,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D4" s="7">
-        <v>4564</v>
+        <v>76005</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1084,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>5811</v>
+        <v>81297</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1099,10 +1042,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="N4" s="7">
-        <v>10374</v>
+        <v>157301</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1120,10 +1063,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>6833</v>
+        <v>37519</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1135,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="I5" s="7">
-        <v>10188</v>
+        <v>54667</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1150,10 +1093,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="N5" s="7">
-        <v>17021</v>
+        <v>92186</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1171,10 +1114,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1186,34 +1129,34 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1578</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1222,102 +1165,102 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D7" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N7" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
-        <v>74812</v>
+        <v>126857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="I8" s="7">
-        <v>72808</v>
+        <v>169756</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>220</v>
+        <v>417</v>
       </c>
       <c r="N8" s="7">
-        <v>147620</v>
+        <v>296614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,49 +1269,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>36928</v>
+        <v>57928</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="I9" s="7">
-        <v>28110</v>
+        <v>73380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="N9" s="7">
-        <v>65038</v>
+        <v>131309</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,49 +1320,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>708</v>
+        <v>1328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>717</v>
+        <v>4383</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>1426</v>
+        <v>5712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,102 +1371,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D11" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N11" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>119</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85468</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7">
+        <v>110</v>
+      </c>
+      <c r="I12" s="7">
+        <v>92412</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="7">
         <v>229</v>
       </c>
-      <c r="D12" s="7">
-        <v>170638</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="7">
-        <v>188</v>
-      </c>
-      <c r="I12" s="7">
-        <v>132720</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M12" s="7">
-        <v>417</v>
-      </c>
       <c r="N12" s="7">
-        <v>303358</v>
+        <v>177881</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,49 +1475,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>68240</v>
+        <v>97356</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>53859</v>
+        <v>78024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="N13" s="7">
-        <v>122099</v>
+        <v>175381</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,49 +1526,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>4034</v>
+        <v>5424</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>1339</v>
+        <v>12653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>5373</v>
+        <v>18077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,102 +1577,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I15" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>87638</v>
+        <v>102732</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="I16" s="7">
-        <v>84183</v>
+        <v>117772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
-        <v>229</v>
+        <v>302</v>
       </c>
       <c r="N16" s="7">
-        <v>171821</v>
+        <v>220503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,49 +1681,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D17" s="7">
-        <v>71274</v>
+        <v>52714</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>76874</v>
+        <v>52894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="N17" s="7">
-        <v>148148</v>
+        <v>105608</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,49 +1732,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>12207</v>
+        <v>9074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="7">
-        <v>5511</v>
+        <v>6643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7">
-        <v>17718</v>
+        <v>15717</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,102 +1783,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D19" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I19" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N19" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>156</v>
+        <v>580</v>
       </c>
       <c r="D20" s="7">
-        <v>115195</v>
+        <v>391062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
-        <v>146</v>
+        <v>607</v>
       </c>
       <c r="I20" s="7">
-        <v>106480</v>
+        <v>461237</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
-        <v>302</v>
+        <v>1187</v>
       </c>
       <c r="N20" s="7">
-        <v>221677</v>
+        <v>852300</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,49 +1887,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="D21" s="7">
-        <v>49961</v>
+        <v>245518</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="I21" s="7">
-        <v>52714</v>
+        <v>258966</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
-        <v>146</v>
+        <v>614</v>
       </c>
       <c r="N21" s="7">
-        <v>102676</v>
+        <v>504483</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,49 +1938,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>6300</v>
+        <v>16554</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>9295</v>
+        <v>24530</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>15595</v>
+        <v>41084</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,268 +1989,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D23" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I23" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N23" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>607</v>
-      </c>
-      <c r="D24" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H24" s="7">
-        <v>580</v>
-      </c>
-      <c r="I24" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="M24" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N24" s="7">
-        <v>854850</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>303</v>
-      </c>
-      <c r="D25" s="7">
-        <v>233236</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="7">
-        <v>311</v>
-      </c>
-      <c r="I25" s="7">
-        <v>221745</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25" s="7">
-        <v>614</v>
-      </c>
-      <c r="N25" s="7">
-        <v>454981</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>30</v>
-      </c>
-      <c r="D26" s="7">
-        <v>23250</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="7">
-        <v>24</v>
-      </c>
-      <c r="I26" s="7">
-        <v>16862</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="7">
-        <v>54</v>
-      </c>
-      <c r="N26" s="7">
-        <v>40112</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>940</v>
-      </c>
-      <c r="D27" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>915</v>
-      </c>
-      <c r="I27" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
